--- a/BaronWars_Objects.xlsx
+++ b/BaronWars_Objects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BattleTech-GitDev\XAI-BW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FADCE07F-7368-415F-B9EF-A6BA0C03C084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100DC892-F00A-4DC9-A89B-5425A5AA8D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7639304E-A5F3-455E-9A6A-9D4AB6362534}"/>
+    <workbookView xWindow="855" yWindow="660" windowWidth="26145" windowHeight="14130" xr2:uid="{7639304E-A5F3-455E-9A6A-9D4AB6362534}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Test</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,12 +390,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2A941B-9408-4F7A-A459-C7F89421026D}">
-  <dimension ref="A1"/>
+  <dimension ref="A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/BaronWars_Objects.xlsx
+++ b/BaronWars_Objects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BattleTech-GitDev\XAI-BW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100DC892-F00A-4DC9-A89B-5425A5AA8D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5CD2C3-2AF3-41D3-80AE-95035620D0F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="855" yWindow="660" windowWidth="26145" windowHeight="14130" xr2:uid="{7639304E-A5F3-455E-9A6A-9D4AB6362534}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>Test</t>
+    <t>TEST</t>
   </si>
 </sst>
 </file>

--- a/BaronWars_Objects.xlsx
+++ b/BaronWars_Objects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BattleTech-GitDev\XAI-BW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5CD2C3-2AF3-41D3-80AE-95035620D0F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD790DD-5F3F-4DFB-BC9B-AE14D0BE5F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="855" yWindow="660" windowWidth="26145" windowHeight="14130" xr2:uid="{7639304E-A5F3-455E-9A6A-9D4AB6362534}"/>
   </bookViews>
@@ -36,22 +36,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>TEST</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Tag Name</t>
+  </si>
+  <si>
+    <t>TBW_newsFeed_on</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>ev_TBW_introNews</t>
+  </si>
+  <si>
+    <t>Turns Newsfeed on for TBW</t>
+  </si>
+  <si>
+    <t>Prevents form loading again by mistake</t>
+  </si>
+  <si>
+    <t>TBW_newsFeed_off</t>
+  </si>
+  <si>
+    <t>Turns Newsfeed off for TBW</t>
+  </si>
+  <si>
+    <t>newsCount</t>
+  </si>
+  <si>
+    <t>Newsfeed Counter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -74,8 +107,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,20 +426,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2A941B-9408-4F7A-A459-C7F89421026D}">
-  <dimension ref="A2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>